--- a/biology/Médecine/Équinisme/Équinisme.xlsx
+++ b/biology/Médecine/Équinisme/Équinisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quinisme</t>
+          <t>Équinisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’équinisme (ou marche sur la pointe des pieds) est un terme médical désignant une attitude anormale du pied en flexion plantaire par contraction des muscles du mollet. Le pied est tendu, le talon ne touche pas le sol en position debout, la tenue se fait sur la pointe des pieds.
 On retrouve souvent l'équinisme dans l'infirmité motrice cérébrale (IMC).
 Cette déformation est due au fait que l'action du muscle jambier antérieur (sur la face antérieure de la jambe, permettant de lever la pointe des pieds) ne compense pas celle des muscles jumeaux (sur la face postérieur de la jambe, permettant de baisser la pointe de pied). Ainsi la marche se fait-elle sur la pointe des pieds, ce qui entraîne des déséquilibres et des atteintes articulaires au niveau des hanches et de la colonne vertébrale.
-Un équinisme précoce peut être indicateur d'autisme[1]. 
-L'équinisme peut être idiopathique. Il est présent chez 2 % des enfants de 5 ans et demi selon une étude suédoise menée sur plus de 1400 enfants. Il disparaît spontanément au fil des années dans la majorité des cas et n'est le plus souvent pas associé à un problème moteur ou cognitif[2].
+Un équinisme précoce peut être indicateur d'autisme. 
+L'équinisme peut être idiopathique. Il est présent chez 2 % des enfants de 5 ans et demi selon une étude suédoise menée sur plus de 1400 enfants. Il disparaît spontanément au fil des années dans la majorité des cas et n'est le plus souvent pas associé à un problème moteur ou cognitif.
 </t>
         </is>
       </c>
